--- a/Nanazono_Familiar/Assets/Resources/NameList_Hiragana.xlsx
+++ b/Nanazono_Familiar/Assets/Resources/NameList_Hiragana.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m011903059\Documents\Nanazono_Familiar\Nanazono_Familiar\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m011928523\Nanazono_Familiar\Nanazono_Familiar\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="288">
   <si>
     <t>Hira_kake2</t>
     <phoneticPr fontId="1"/>
@@ -888,6 +888,38 @@
   </si>
   <si>
     <t>き,ゃ,ろ,ら,い,な,え,す,て,ふ,ぁ,に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろ,い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミ,ー,シ,ャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>や,い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か,る,ろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>る,ー,ど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>や,こ,ぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き,っ,か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>み,ー,し,ゃ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1220,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1303,6 +1335,9 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
+      <c r="I2" t="s">
+        <v>280</v>
+      </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
@@ -1335,6 +1370,9 @@
       <c r="H3" t="s">
         <v>29</v>
       </c>
+      <c r="I3" t="s">
+        <v>282</v>
+      </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
@@ -1367,6 +1405,9 @@
       <c r="H4" t="s">
         <v>39</v>
       </c>
+      <c r="I4" t="s">
+        <v>283</v>
+      </c>
       <c r="J4" t="s">
         <v>40</v>
       </c>
@@ -1402,6 +1443,9 @@
       <c r="H5" t="s">
         <v>50</v>
       </c>
+      <c r="I5" t="s">
+        <v>284</v>
+      </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
@@ -1437,6 +1481,9 @@
       <c r="H6" t="s">
         <v>60</v>
       </c>
+      <c r="I6" t="s">
+        <v>285</v>
+      </c>
       <c r="J6" t="s">
         <v>61</v>
       </c>
@@ -1472,6 +1519,9 @@
       <c r="H7" t="s">
         <v>69</v>
       </c>
+      <c r="I7" t="s">
+        <v>286</v>
+      </c>
       <c r="J7" t="s">
         <v>70</v>
       </c>
@@ -1503,6 +1553,9 @@
       </c>
       <c r="H8" t="s">
         <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>287</v>
       </c>
       <c r="J8" t="s">
         <v>78</v>
